--- a/Test Cases/Test Scenarios.xlsx
+++ b/Test Cases/Test Scenarios.xlsx
@@ -4,22 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario - Chair" sheetId="1" r:id="rId1"/>
     <sheet name="Test Scenario - Coffee Machine" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Scenario - Car" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
-  <si>
-    <t>Status</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="102">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -163,6 +160,168 @@
   </si>
   <si>
     <t>27. Check the functioning of machine when ingredients container's capacity is exceeded.</t>
+  </si>
+  <si>
+    <t>Type of Testing</t>
+  </si>
+  <si>
+    <t>1. To test the car</t>
+  </si>
+  <si>
+    <t>1. Verify that your car gets unlocked smoothly through your remote.</t>
+  </si>
+  <si>
+    <t>2. Verify that your car makes sound when unloked by remote.</t>
+  </si>
+  <si>
+    <t>3. Verify that when you insert key and give ignition car is starting smoothly.</t>
+  </si>
+  <si>
+    <t>4. Verify that car starts driving smoothly and slowly when you put your car in a first gear.</t>
+  </si>
+  <si>
+    <t>5. Verify that accelerator, brake &amp; clutch of car are functioning smoothly and fine.</t>
+  </si>
+  <si>
+    <t>6. Verify the engine of a car - like petrol, desiel, cng.</t>
+  </si>
+  <si>
+    <t>7. Check car's performance on different types of roads like charcoal, cement, mudy, dusty etc.</t>
+  </si>
+  <si>
+    <t>8. Verify car's performance and fuel consumption on plain, hills &amp; slops.</t>
+  </si>
+  <si>
+    <t>9. Verify car's mileage is as per specification.</t>
+  </si>
+  <si>
+    <t>10. Verify car's dimentions are as per the specifications.</t>
+  </si>
+  <si>
+    <t>11. Check the type of car whether it is luxury, sport etc.</t>
+  </si>
+  <si>
+    <t>12. Check that the fuel tank capacity is as per specification.</t>
+  </si>
+  <si>
+    <t>13. Check if steering is power steering or not.</t>
+  </si>
+  <si>
+    <t>14. Check if all four windows of car are power windows or not.</t>
+  </si>
+  <si>
+    <t>15. Check for car's mirror are they power mirror or not.</t>
+  </si>
+  <si>
+    <t>16. Verify that all gears are working as per their working specification.</t>
+  </si>
+  <si>
+    <t>17. Check if the car's floor height is at an optimum distance from the road.</t>
+  </si>
+  <si>
+    <t>18. Verify the top speed of the car at normal conditions.</t>
+  </si>
+  <si>
+    <t>19. Verify the maximum aceleration of car.</t>
+  </si>
+  <si>
+    <t>20. Verify the outer body of car.</t>
+  </si>
+  <si>
+    <t>21. Verify that car's pane are made up of tempered glass or not.</t>
+  </si>
+  <si>
+    <t>22. Check number of seats in the car.</t>
+  </si>
+  <si>
+    <t>23. Check number of doors in the car.</t>
+  </si>
+  <si>
+    <t>24. Verify that handbreaks are functionning properly.</t>
+  </si>
+  <si>
+    <t>25. Verify main brakes of car are working fine or not and gets applied in timely manner or not.</t>
+  </si>
+  <si>
+    <t>26. Verify type and power of battery.</t>
+  </si>
+  <si>
+    <t>27. Check if headlights are working fine and give proper lighting when turned on in dark.</t>
+  </si>
+  <si>
+    <t>28. Verify shock absorber are working cool in different conditions.</t>
+  </si>
+  <si>
+    <t>29. Check how many air bags are present in car and their functioning.</t>
+  </si>
+  <si>
+    <t>30. Check for central locking is working fine or not.</t>
+  </si>
+  <si>
+    <t>31. Check for seat belts and functioning properly.</t>
+  </si>
+  <si>
+    <t>32. Verify car's interior, materials etc.</t>
+  </si>
+  <si>
+    <t>33. Verify car's internal spacing.</t>
+  </si>
+  <si>
+    <t>34. Verify car's speedometer, fuelmeter etc are working fine or not.</t>
+  </si>
+  <si>
+    <t>35. Check car's performance, brakes, tire grips on slipery roads.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36. Verify car is starting properly and runs smoothly on starting after several days. </t>
+  </si>
+  <si>
+    <t>37. Check if car's automatic lock functionality is as per specification.</t>
+  </si>
+  <si>
+    <t>38. Check if car's break llight glows or not when you brake.</t>
+  </si>
+  <si>
+    <t>39. Check if reverse light glows when you put your car in reverse gear.</t>
+  </si>
+  <si>
+    <t>40. Check if all indicators are working as per specification.</t>
+  </si>
+  <si>
+    <t>Positive Testing</t>
+  </si>
+  <si>
+    <t>41. Check car's performance on fillilng non-prescribed fuel type.</t>
+  </si>
+  <si>
+    <t>Negative Testing</t>
+  </si>
+  <si>
+    <t>42. Try to drive car at highspeed on first gear continuously.</t>
+  </si>
+  <si>
+    <t>43. Try to keep different air pressure in each tyre.</t>
+  </si>
+  <si>
+    <t>44. Use handbreak while you are driving the car.</t>
+  </si>
+  <si>
+    <t>45. Try to insert some different key in your ignition switch if there.</t>
+  </si>
+  <si>
+    <t>46. Check condition of tyres after filling higher air pressure than prescribed.</t>
+  </si>
+  <si>
+    <t>47. Check car's condition, fuel consumption, speed after filling lesser air pressure than prescribed.</t>
+  </si>
+  <si>
+    <t>48. Check car's performance, fuel consumption on driving the car on the roads which are not advised for driving.</t>
+  </si>
+  <si>
+    <t>49. Try to switch off your car while its running.</t>
+  </si>
+  <si>
+    <t>50. Try to shift gears without pressing clutch, if not automatic.</t>
   </si>
 </sst>
 </file>
@@ -227,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -254,6 +413,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,7 +721,7 @@
   <dimension ref="B4:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,21 +729,21 @@
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.140625" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
@@ -592,150 +754,150 @@
     </row>
     <row r="6" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="D6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="C17" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="C19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="6"/>
@@ -858,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,20 +1029,21 @@
     <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.5703125" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -891,10 +1054,10 @@
     </row>
     <row r="7" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -902,7 +1065,7 @@
     <row r="8" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -910,7 +1073,7 @@
     <row r="9" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -918,7 +1081,7 @@
     <row r="10" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -926,7 +1089,7 @@
     <row r="11" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -934,7 +1097,7 @@
     <row r="12" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -942,7 +1105,7 @@
     <row r="13" spans="3:6" ht="63" x14ac:dyDescent="0.25">
       <c r="C13" s="6"/>
       <c r="D13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -950,7 +1113,7 @@
     <row r="14" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" s="6"/>
       <c r="D14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -958,7 +1121,7 @@
     <row r="15" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C15" s="6"/>
       <c r="D15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -966,7 +1129,7 @@
     <row r="16" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -974,7 +1137,7 @@
     <row r="17" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C17" s="6"/>
       <c r="D17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -982,7 +1145,7 @@
     <row r="18" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C18" s="6"/>
       <c r="D18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -990,7 +1153,7 @@
     <row r="19" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C19" s="6"/>
       <c r="D19" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -998,7 +1161,7 @@
     <row r="20" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C20" s="6"/>
       <c r="D20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1006,7 +1169,7 @@
     <row r="21" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C21" s="6"/>
       <c r="D21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1014,7 +1177,7 @@
     <row r="22" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C22" s="6"/>
       <c r="D22" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1022,7 +1185,7 @@
     <row r="23" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C23" s="6"/>
       <c r="D23" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1030,7 +1193,7 @@
     <row r="24" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C24" s="6"/>
       <c r="D24" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1038,7 +1201,7 @@
     <row r="25" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C25" s="6"/>
       <c r="D25" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1046,7 +1209,7 @@
     <row r="26" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" s="6"/>
       <c r="D26" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1054,7 +1217,7 @@
     <row r="27" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C27" s="6"/>
       <c r="D27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1062,7 +1225,7 @@
     <row r="28" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C28" s="6"/>
       <c r="D28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1070,7 +1233,7 @@
     <row r="29" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C29" s="6"/>
       <c r="D29" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1078,7 +1241,7 @@
     <row r="30" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C30" s="6"/>
       <c r="D30" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1086,7 +1249,7 @@
     <row r="31" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C31" s="6"/>
       <c r="D31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1094,7 +1257,7 @@
     <row r="32" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
       <c r="D32" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1102,7 +1265,7 @@
     <row r="33" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C33" s="6"/>
       <c r="D33" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1426,12 +1589,682 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C4:F115"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C7" s="6"/>
+      <c r="D7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C8" s="6"/>
+      <c r="D8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C9" s="6"/>
+      <c r="D9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C10" s="6"/>
+      <c r="D10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C11" s="6"/>
+      <c r="D11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C12" s="6"/>
+      <c r="D12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C17" s="6"/>
+      <c r="D17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C21" s="6"/>
+      <c r="D21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C22" s="6"/>
+      <c r="D22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C23" s="6"/>
+      <c r="D23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="6"/>
+      <c r="D24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="6"/>
+      <c r="D25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C26" s="6"/>
+      <c r="D26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="6"/>
+      <c r="D27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="6"/>
+      <c r="D28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C29" s="6"/>
+      <c r="D29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C30" s="6"/>
+      <c r="D30" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C31" s="6"/>
+      <c r="D31" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C32" s="6"/>
+      <c r="D32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C33" s="6"/>
+      <c r="D33" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C34" s="6"/>
+      <c r="D34" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D35" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D36" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D37" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D38" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D39" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D40" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D41" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D42" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D43" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D44" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D45" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D46" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D47" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D48" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D49" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D50" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D51" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D52" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D53" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D54" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D55" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D56" s="11"/>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D57" s="11"/>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D59" s="11"/>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D60" s="11"/>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D61" s="11"/>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D62" s="11"/>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D63" s="11"/>
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D64" s="11"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="11"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="11"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="11"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="11"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="11"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="11"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="11"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="11"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="11"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="11"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="11"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="11"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="11"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="11"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="11"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="11"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="11"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="11"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="11"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="11"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="11"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="11"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="11"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="11"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="11"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="11"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="11"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="11"/>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="11"/>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="11"/>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="11"/>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="11"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="11"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="11"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="11"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="11"/>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="11"/>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D102" s="11"/>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="11"/>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="11"/>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="11"/>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="11"/>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="11"/>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="11"/>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="11"/>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="11"/>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="11"/>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D112" s="11"/>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="11"/>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="11"/>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="11"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Cases/Test Scenarios.xlsx
+++ b/Test Cases/Test Scenarios.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario - Chair" sheetId="1" r:id="rId1"/>
     <sheet name="Test Scenario - Coffee Machine" sheetId="2" r:id="rId2"/>
     <sheet name="Test Scenario - Car" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Scenario - Calculator" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="123">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -322,13 +323,76 @@
   </si>
   <si>
     <t>50. Try to shift gears without pressing clutch, if not automatic.</t>
+  </si>
+  <si>
+    <t>1. To test the calculator</t>
+  </si>
+  <si>
+    <t>1. Check if calculator is normal or scientific</t>
+  </si>
+  <si>
+    <t>2. Verify that all buttons are present on calculator and text written on them is readble.</t>
+  </si>
+  <si>
+    <t>3. Check all arithmetic operations are working properly.</t>
+  </si>
+  <si>
+    <t>4. Check if BODMAS is applied in case of complex queries and correct result is returned.</t>
+  </si>
+  <si>
+    <t>5. Verify that calculator provides correct answer in case of decimal operations.</t>
+  </si>
+  <si>
+    <t>6. Check if calculator is battery operated or working on solar.</t>
+  </si>
+  <si>
+    <t>7. Check outer body material of calculator.</t>
+  </si>
+  <si>
+    <t>8. Verify the spacing between two buttons on the calculator, two buttons should not be too close to each other.</t>
+  </si>
+  <si>
+    <t>9. Check the pressure required to press the button, pressure required should not be too high.</t>
+  </si>
+  <si>
+    <t>10. Verify the number of digits allowed to enter to perform any operation.</t>
+  </si>
+  <si>
+    <t>11. Verify the limit of response value.</t>
+  </si>
+  <si>
+    <t>12. Verify the functioning of memory of calculator.</t>
+  </si>
+  <si>
+    <t>13. Check if calculator allows to navigate through previous calculations.</t>
+  </si>
+  <si>
+    <t>14. Varify that pressing 'C' cancels any digit or operation added.</t>
+  </si>
+  <si>
+    <t>15. Varify the working of On-Off button on the calculator.</t>
+  </si>
+  <si>
+    <t>16. Check if keeping calculator unused for long time, turn it off automatically.</t>
+  </si>
+  <si>
+    <t>17. Verify that pressing two operator buttons one after other make sure that the lattest operator button pressed should get override.</t>
+  </si>
+  <si>
+    <t>18. Verify the state of calculator when two buttons are pressend simulteniously.</t>
+  </si>
+  <si>
+    <t>19. Verify that user can delete digits one by one using back space key.</t>
+  </si>
+  <si>
+    <t>20. Verify that user is able to delete everything by pressing 'CE' button.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +418,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -386,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -417,6 +489,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1591,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2267,4 +2346,143 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D8" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D9" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D10" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D11" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D12" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D14" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D15" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D16" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D18" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D19" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D20" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D21" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D22" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D23" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D24" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D25" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D26" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>